--- a/ManRelations.xlsx
+++ b/ManRelations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="480" windowWidth="24200" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="24760" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,10 +253,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="72">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -656,7 +664,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -692,187 +700,187 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/ManRelations.xlsx
+++ b/ManRelations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="24760" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="32">
   <si>
     <t>server01</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>switch08</t>
+  </si>
+  <si>
+    <t>coresw01</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -247,6 +250,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -260,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -297,6 +308,10 @@
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -332,6 +347,10 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1114,6 +1133,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ManRelations.xlsx
+++ b/ManRelations.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jplaberge/Documents/workspace.2016-b/krr.git/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
   <si>
     <t>server01</t>
   </si>
@@ -115,6 +123,9 @@
   </si>
   <si>
     <t>coresw01</t>
+  </si>
+  <si>
+    <t>www.magenta.ca|order</t>
   </si>
 </sst>
 </file>
@@ -355,6 +366,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -680,13 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
@@ -696,7 +712,7 @@
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -719,7 +735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -742,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -765,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -788,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -811,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -834,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -857,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -880,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -903,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -926,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -949,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -972,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1041,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1087,18 +1103,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1110,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1121,47 +1137,47 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1176,16 +1192,34 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>